--- a/console/Networking/podChExcel/podMixinsXlsx/components/detail/statusTab.xlsx
+++ b/console/Networking/podChExcel/podMixinsXlsx/components/detail/statusTab.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\韩凯\2019.1\1.23\console_1901-24_HO-译文-提交\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12735" windowHeight="8175"/>
   </bookViews>
@@ -69,9 +64,6 @@
     </r>
   </si>
   <si>
-    <t>Detection Time</t>
-  </si>
-  <si>
     <t>statusTab_i18nKey_4</t>
   </si>
   <si>
@@ -208,13 +200,17 @@
       </rPr>
       <t>'||'--'</t>
     </r>
+  </si>
+  <si>
+    <t>Probed at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -241,6 +237,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -262,9 +264,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -606,15 +611,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C10" sqref="C10:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="23.5" style="1"/>
+    <col min="1" max="3" width="23.5" style="1"/>
+    <col min="4" max="4" width="23.5" style="2"/>
+    <col min="5" max="16384" width="23.5" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -647,73 +654,73 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
